--- a/cloth-interface-design.xlsx
+++ b/cloth-interface-design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="18288" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t>功能</t>
   </si>
@@ -78,28 +78,28 @@
     <t>3、更新信息表</t>
   </si>
   <si>
-    <t>/account/updataAccount</t>
+    <t>/account/updateAccount</t>
   </si>
   <si>
     <t>3.1、根据AccountId更新用户名</t>
   </si>
   <si>
-    <t>(String accountName)</t>
+    <t>(int accountId,String accountName)</t>
   </si>
   <si>
     <t>3.2、根据AccountId更新会员信息</t>
   </si>
   <si>
-    <t>/account/updataVipByAccountId</t>
-  </si>
-  <si>
-    <t>（int accountId,mint isVip, String vipPayTime,int vipType）</t>
+    <t>/account/updateVipByAccountId</t>
+  </si>
+  <si>
+    <t>（int accountId,int isVip, String vipTime,int vipType）</t>
   </si>
   <si>
     <t>3.3、根据AccountId更新个人信息中的发布信息</t>
   </si>
   <si>
-    <t>/account/updataPublishByAccountId</t>
+    <t>/account/updatePublishByAccountId</t>
   </si>
   <si>
     <t>（int accountId,int remainPublishTimes, String lastPublishTime）</t>
@@ -108,7 +108,10 @@
     <t>4、根据登录名密码查询</t>
   </si>
   <si>
-    <t>/account/findAccountByNamePasswod</t>
+    <t>/account/findAccountByNamePassword</t>
+  </si>
+  <si>
+    <t>(String accountName,String password)</t>
   </si>
   <si>
     <t>Result(int code, String message, Account account)</t>
@@ -118,6 +121,9 @@
   </si>
   <si>
     <t>/account/findAccountByName</t>
+  </si>
+  <si>
+    <t>(String accountName</t>
   </si>
   <si>
     <t>6、全部查询</t>
@@ -1437,18 +1443,18 @@
   <sheetPr/>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="42.8181818181818" customWidth="1"/>
-    <col min="2" max="2" width="40.5454545454545" customWidth="1"/>
-    <col min="3" max="3" width="28.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="42.8148148148148" customWidth="1"/>
+    <col min="2" max="2" width="40.5462962962963" customWidth="1"/>
+    <col min="3" max="3" width="28.2685185185185" customWidth="1"/>
     <col min="4" max="4" width="68" customWidth="1"/>
-    <col min="5" max="5" width="12.6363636363636" customWidth="1"/>
-    <col min="6" max="6" width="23.8181818181818" customWidth="1"/>
+    <col min="5" max="5" width="12.6388888888889" customWidth="1"/>
+    <col min="6" max="6" width="23.8148148148148" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1493,7 +1499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="14.75"/>
+    <row r="5" ht="15.15"/>
     <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
         <v>11</v>
@@ -1548,7 +1554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" ht="28.8" spans="1:4">
       <c r="A10" s="8" t="s">
         <v>21</v>
       </c>
@@ -1562,7 +1568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" ht="42" spans="1:4">
+    <row r="11" ht="43.2" spans="1:4">
       <c r="A11" s="8" t="s">
         <v>23</v>
       </c>
@@ -1576,7 +1582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" ht="42" spans="1:4">
+    <row r="12" ht="43.2" spans="1:4">
       <c r="A12" s="8" t="s">
         <v>26</v>
       </c>
@@ -1598,45 +1604,45 @@
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" ht="14.75" spans="1:4">
+    </row>
+    <row r="15" ht="15.15" spans="1:4">
       <c r="A15" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" ht="14.75" spans="1:4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" ht="15.15" spans="1:4">
       <c r="A17" s="14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
@@ -1644,13 +1650,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>10</v>
@@ -1658,27 +1664,27 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
         <v>43</v>
       </c>
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
       <c r="D19" s="17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>10</v>
@@ -1686,54 +1692,54 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" ht="14.75"/>
-    <row r="23" ht="28" spans="1:4">
+    <row r="22" ht="15.15"/>
+    <row r="23" ht="28.8" spans="1:4">
       <c r="A23" s="23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="24"/>
       <c r="D23" s="25"/>
     </row>
-    <row r="24" ht="28" spans="1:4">
+    <row r="24" ht="28.8" spans="1:4">
       <c r="A24" s="26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
     </row>
-    <row r="25" ht="28" spans="1:4">
+    <row r="25" ht="28.8" spans="1:4">
       <c r="A25" s="26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="28"/>
     </row>
-    <row r="26" ht="28" spans="1:4">
+    <row r="26" ht="28.8" spans="1:4">
       <c r="A26" s="26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
       <c r="D26" s="28"/>
     </row>
-    <row r="27" ht="14.75" spans="1:4">
+    <row r="27" ht="15.15" spans="1:4">
       <c r="A27" s="29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
@@ -1755,7 +1761,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1772,7 +1778,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
